--- a/artfynd/A 54246-2022.xlsx
+++ b/artfynd/A 54246-2022.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY19"/>
+  <dimension ref="A1:AY49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -796,10 +796,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>67082940</v>
+        <v>112194188</v>
       </c>
       <c r="B3" t="n">
-        <v>78569</v>
+        <v>56398</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -812,37 +812,41 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Brännbodarna, Jmt</t>
+          <t>laholmsnäset, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>518364.9304356659</v>
+        <v>518082.81586301</v>
       </c>
       <c r="R3" t="n">
-        <v>7087456.73341616</v>
+        <v>7087539.163071194</v>
       </c>
       <c r="S3" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -866,7 +870,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2017-06-27</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -876,12 +880,17 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2017-06-27</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -896,26 +905,22 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Hugo Ström</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Hugo Ström</t>
-        </is>
-      </c>
-      <c r="AY3" t="inlineStr">
-        <is>
-          <t>SCA Skog Naturvärdesinventering</t>
-        </is>
-      </c>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>67082941</v>
+        <v>112194213</v>
       </c>
       <c r="B4" t="n">
-        <v>78596</v>
+        <v>88033</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -924,41 +929,41 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6462</v>
+        <v>1599</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Fjällfotad musseron</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Tricholoma olivaceotinctum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>Mort.Chr. &amp; Heilm.-Claus.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Brännbodarna, Jmt</t>
+          <t>laholmsnäset, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>518335.1975777112</v>
+        <v>518124.7050755081</v>
       </c>
       <c r="R4" t="n">
-        <v>7087491.332742036</v>
+        <v>7087459.73482959</v>
       </c>
       <c r="S4" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -982,7 +987,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2017-06-27</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -992,7 +997,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2017-06-27</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1006,32 +1011,29 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Hugo Ström</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Hugo Ström</t>
-        </is>
-      </c>
-      <c r="AY4" t="inlineStr">
-        <is>
-          <t>SCA Skog Naturvärdesinventering</t>
-        </is>
-      </c>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>67082927</v>
+        <v>112194192</v>
       </c>
       <c r="B5" t="n">
-        <v>81236</v>
+        <v>56398</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1044,37 +1046,41 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1312</v>
+        <v>100109</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Brännbodarna, Jmt</t>
+          <t>laholmsnäset, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>518288.6629372206</v>
+        <v>518091.4267611828</v>
       </c>
       <c r="R5" t="n">
-        <v>7087459.808235356</v>
+        <v>7087574.42568707</v>
       </c>
       <c r="S5" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1098,7 +1104,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2017-06-27</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1108,12 +1114,17 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2017-06-27</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1128,26 +1139,22 @@
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Hugo Ström</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Hugo Ström</t>
-        </is>
-      </c>
-      <c r="AY5" t="inlineStr">
-        <is>
-          <t>SCA Skog Naturvärdesinventering</t>
-        </is>
-      </c>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>67082942</v>
+        <v>112194182</v>
       </c>
       <c r="B6" t="n">
-        <v>77506</v>
+        <v>86223</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1160,37 +1167,37 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>4412</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Brännbodarna, Jmt</t>
+          <t>laholmsnäset, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>518335.1975777112</v>
+        <v>518134.0059156906</v>
       </c>
       <c r="R6" t="n">
-        <v>7087491.332742036</v>
+        <v>7087528.01498606</v>
       </c>
       <c r="S6" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1214,7 +1221,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2017-06-27</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1224,7 +1231,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2017-06-27</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1244,26 +1251,22 @@
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Hugo Ström</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Hugo Ström</t>
-        </is>
-      </c>
-      <c r="AY6" t="inlineStr">
-        <is>
-          <t>SCA Skog Naturvärdesinventering</t>
-        </is>
-      </c>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>67082945</v>
+        <v>112194189</v>
       </c>
       <c r="B7" t="n">
-        <v>56411</v>
+        <v>56398</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1276,16 +1279,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100049</v>
+        <v>100109</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -1294,19 +1297,23 @@
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Brännbodarna, Jmt</t>
+          <t>laholmsnäset, Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>518335.1975777112</v>
+        <v>518072.6030094306</v>
       </c>
       <c r="R7" t="n">
-        <v>7087491.332742036</v>
+        <v>7087552.308946898</v>
       </c>
       <c r="S7" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1330,7 +1337,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2017-06-27</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1340,12 +1347,17 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2017-06-27</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1360,26 +1372,22 @@
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Hugo Ström</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Hugo Ström</t>
-        </is>
-      </c>
-      <c r="AY7" t="inlineStr">
-        <is>
-          <t>SCA Skog Naturvärdesinventering</t>
-        </is>
-      </c>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>67082938</v>
+        <v>112194180</v>
       </c>
       <c r="B8" t="n">
-        <v>81236</v>
+        <v>86223</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1392,37 +1400,37 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1312</v>
+        <v>4412</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Brännbodarna, Jmt</t>
+          <t>laholmsnäset, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>518471.4961736461</v>
+        <v>518124.623510486</v>
       </c>
       <c r="R8" t="n">
-        <v>7087323.544370682</v>
+        <v>7087473.819904541</v>
       </c>
       <c r="S8" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1446,7 +1454,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2017-06-27</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1456,7 +1464,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2017-06-27</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1476,26 +1484,22 @@
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Hugo Ström</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Hugo Ström</t>
-        </is>
-      </c>
-      <c r="AY8" t="inlineStr">
-        <is>
-          <t>SCA Skog Naturvärdesinventering</t>
-        </is>
-      </c>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>67082911</v>
+        <v>112194191</v>
       </c>
       <c r="B9" t="n">
-        <v>78602</v>
+        <v>56398</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1504,41 +1508,45 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6463</v>
+        <v>100109</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Brännbodarna, Jmt</t>
+          <t>laholmsnäset, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>518204.9283606771</v>
+        <v>518083.4938550232</v>
       </c>
       <c r="R9" t="n">
-        <v>7087382.728766739</v>
+        <v>7087574.37984088</v>
       </c>
       <c r="S9" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1562,7 +1570,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2017-06-27</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1572,12 +1580,17 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2017-06-27</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1592,26 +1605,22 @@
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Hugo Ström</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Hugo Ström</t>
-        </is>
-      </c>
-      <c r="AY9" t="inlineStr">
-        <is>
-          <t>SCA Skog Naturvärdesinventering</t>
-        </is>
-      </c>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>67082910</v>
+        <v>112194211</v>
       </c>
       <c r="B10" t="n">
-        <v>78596</v>
+        <v>90651</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1620,41 +1629,41 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6462</v>
+        <v>1968</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Grantaggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Bankera violascens</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Brännbodarna, Jmt</t>
+          <t>laholmsnäset, Jmt</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>518204.902758911</v>
+        <v>518131.7614992051</v>
       </c>
       <c r="R10" t="n">
-        <v>7087387.130467622</v>
+        <v>7087535.044611246</v>
       </c>
       <c r="S10" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1678,7 +1687,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2017-06-27</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1688,7 +1697,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2017-06-27</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1708,26 +1717,22 @@
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Hugo Ström</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Hugo Ström</t>
-        </is>
-      </c>
-      <c r="AY10" t="inlineStr">
-        <is>
-          <t>SCA Skog Naturvärdesinventering</t>
-        </is>
-      </c>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>67082907</v>
+        <v>112194183</v>
       </c>
       <c r="B11" t="n">
-        <v>78569</v>
+        <v>86223</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1740,37 +1745,37 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6458</v>
+        <v>4412</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Brännbodarna, Jmt</t>
+          <t>laholmsnäset, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>518204.902758911</v>
+        <v>518176.6615178927</v>
       </c>
       <c r="R11" t="n">
-        <v>7087387.130467622</v>
+        <v>7087544.548479875</v>
       </c>
       <c r="S11" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1794,7 +1799,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2017-06-27</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -1804,7 +1809,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2017-06-27</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -1824,26 +1829,22 @@
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Hugo Ström</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Hugo Ström</t>
-        </is>
-      </c>
-      <c r="AY11" t="inlineStr">
-        <is>
-          <t>SCA Skog Naturvärdesinventering</t>
-        </is>
-      </c>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>67082943</v>
+        <v>112194212</v>
       </c>
       <c r="B12" t="n">
-        <v>89410</v>
+        <v>90687</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1852,41 +1853,44 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5432</v>
+        <v>5964</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Brännbodarna, Jmt</t>
+          <t>laholmsnäset, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>518335.1975777112</v>
+        <v>518174.2844365868</v>
       </c>
       <c r="R12" t="n">
-        <v>7087491.332742036</v>
+        <v>7087422.607284184</v>
       </c>
       <c r="S12" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1910,7 +1914,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2017-06-27</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -1920,7 +1924,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2017-06-27</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -1934,32 +1938,29 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
+      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Hugo Ström</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Hugo Ström</t>
-        </is>
-      </c>
-      <c r="AY12" t="inlineStr">
-        <is>
-          <t>SCA Skog Naturvärdesinventering</t>
-        </is>
-      </c>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>67082909</v>
+        <v>112194210</v>
       </c>
       <c r="B13" t="n">
-        <v>78570</v>
+        <v>89423</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1972,37 +1973,37 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2081</v>
+        <v>5432</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Brännbodarna, Jmt</t>
+          <t>laholmsnäset, Jmt</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>518203.5344489382</v>
+        <v>518177.5148404223</v>
       </c>
       <c r="R13" t="n">
-        <v>7087395.045823406</v>
+        <v>7087549.395220019</v>
       </c>
       <c r="S13" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2026,7 +2027,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2017-06-27</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -2036,7 +2037,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2017-06-27</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -2056,26 +2057,22 @@
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Hugo Ström</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Hugo Ström</t>
-        </is>
-      </c>
-      <c r="AY13" t="inlineStr">
-        <is>
-          <t>SCA Skog Naturvärdesinventering</t>
-        </is>
-      </c>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>67082936</v>
+        <v>112194199</v>
       </c>
       <c r="B14" t="n">
-        <v>77506</v>
+        <v>90332</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2084,41 +2081,41 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6425</v>
+        <v>4769</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Brännbodarna, Jmt</t>
+          <t>laholmsnäset, Jmt</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>518443.3372989752</v>
+        <v>518126.9826688495</v>
       </c>
       <c r="R14" t="n">
-        <v>7087315.014623537</v>
+        <v>7087446.982937787</v>
       </c>
       <c r="S14" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2142,7 +2139,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2017-06-27</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -2152,7 +2149,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2017-06-27</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
@@ -2172,26 +2169,22 @@
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Hugo Ström</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Hugo Ström</t>
-        </is>
-      </c>
-      <c r="AY14" t="inlineStr">
-        <is>
-          <t>SCA Skog Naturvärdesinventering</t>
-        </is>
-      </c>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>67082944</v>
+        <v>112194181</v>
       </c>
       <c r="B15" t="n">
-        <v>81236</v>
+        <v>86223</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2204,37 +2197,37 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1312</v>
+        <v>4412</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Brännbodarna, Jmt</t>
+          <t>laholmsnäset, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>518333.434662688</v>
+        <v>518118.9168419133</v>
       </c>
       <c r="R15" t="n">
-        <v>7087491.322415015</v>
+        <v>7087545.974299704</v>
       </c>
       <c r="S15" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2258,7 +2251,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2017-06-27</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -2268,7 +2261,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2017-06-27</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
@@ -2288,26 +2281,22 @@
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Hugo Ström</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Hugo Ström</t>
-        </is>
-      </c>
-      <c r="AY15" t="inlineStr">
-        <is>
-          <t>SCA Skog Naturvärdesinventering</t>
-        </is>
-      </c>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>67082908</v>
+        <v>112194209</v>
       </c>
       <c r="B16" t="n">
-        <v>77506</v>
+        <v>89423</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2320,37 +2309,37 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Brännbodarna, Jmt</t>
+          <t>laholmsnäset, Jmt</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>518206.6324470416</v>
+        <v>518114.4000792159</v>
       </c>
       <c r="R16" t="n">
-        <v>7087392.862924065</v>
+        <v>7087488.726542877</v>
       </c>
       <c r="S16" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2374,7 +2363,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2017-06-27</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -2384,7 +2373,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2017-06-27</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
@@ -2404,26 +2393,22 @@
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Hugo Ström</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Hugo Ström</t>
-        </is>
-      </c>
-      <c r="AY16" t="inlineStr">
-        <is>
-          <t>SCA Skog Naturvärdesinventering</t>
-        </is>
-      </c>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>67082926</v>
+        <v>112194205</v>
       </c>
       <c r="B17" t="n">
-        <v>96354</v>
+        <v>78578</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2432,41 +2417,41 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>221952</v>
+        <v>6458</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Brännbodarna, Jmt</t>
+          <t>laholmsnäset, Jmt</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>518268.83508197</v>
+        <v>518193.1543143883</v>
       </c>
       <c r="R17" t="n">
-        <v>7087458.812089412</v>
+        <v>7087436.802628993</v>
       </c>
       <c r="S17" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2490,7 +2475,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2017-06-27</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -2500,7 +2485,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2017-06-27</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
@@ -2520,26 +2505,22 @@
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Hugo Ström</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Hugo Ström</t>
-        </is>
-      </c>
-      <c r="AY17" t="inlineStr">
-        <is>
-          <t>SCA Skog Naturvärdesinventering</t>
-        </is>
-      </c>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>67082937</v>
+        <v>112194190</v>
       </c>
       <c r="B18" t="n">
-        <v>96354</v>
+        <v>56398</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2548,41 +2529,45 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>221952</v>
+        <v>100109</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Brännbodarna, Jmt</t>
+          <t>laholmsnäset, Jmt</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>518443.3372989752</v>
+        <v>518066.4100611635</v>
       </c>
       <c r="R18" t="n">
-        <v>7087315.014623537</v>
+        <v>7087556.234640981</v>
       </c>
       <c r="S18" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2606,7 +2591,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2017-06-27</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
@@ -2616,12 +2601,17 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2017-06-27</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2636,69 +2626,65 @@
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Hugo Ström</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Hugo Ström</t>
-        </is>
-      </c>
-      <c r="AY18" t="inlineStr">
-        <is>
-          <t>SCA Skog Naturvärdesinventering</t>
-        </is>
-      </c>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>67082946</v>
+        <v>112194201</v>
       </c>
       <c r="B19" t="n">
-        <v>56395</v>
+        <v>88956</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Behöver inte valideras</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100109</v>
+        <v>5747</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Brännbodarna, Jmt</t>
+          <t>laholmsnäset, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>518282.1672112891</v>
+        <v>518166.5198199047</v>
       </c>
       <c r="R19" t="n">
-        <v>7087590.939582426</v>
+        <v>7087545.369921553</v>
       </c>
       <c r="S19" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2722,7 +2708,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2017-06-27</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -2732,7 +2718,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2017-06-27</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
@@ -2746,25 +2732,3477 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
+      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX19" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>67082940</v>
+      </c>
+      <c r="B20" t="n">
+        <v>78569</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>6458</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Lunglav</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Brännbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>518364.9304356659</v>
+      </c>
+      <c r="R20" t="n">
+        <v>7087456.73341616</v>
+      </c>
+      <c r="S20" t="n">
+        <v>25</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Ström</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>2017-06-27</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>2017-06-27</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT20" t="inlineStr"/>
+      <c r="AW20" t="inlineStr">
+        <is>
           <t>Hugo Ström</t>
         </is>
       </c>
-      <c r="AX19" t="inlineStr">
+      <c r="AX20" t="inlineStr">
         <is>
           <t>Hugo Ström</t>
         </is>
       </c>
-      <c r="AY19" t="inlineStr">
+      <c r="AY20" t="inlineStr">
         <is>
           <t>SCA Skog Naturvärdesinventering</t>
         </is>
       </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>67082941</v>
+      </c>
+      <c r="B21" t="n">
+        <v>78596</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>6462</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Stuplav</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Nephroma bellum</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>(Spreng.) Tuck.</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Brännbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>518335.1975777112</v>
+      </c>
+      <c r="R21" t="n">
+        <v>7087491.332742036</v>
+      </c>
+      <c r="S21" t="n">
+        <v>25</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Ström</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>2017-06-27</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>2017-06-27</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT21" t="inlineStr"/>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>Hugo Ström</t>
+        </is>
+      </c>
+      <c r="AX21" t="inlineStr">
+        <is>
+          <t>Hugo Ström</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr">
+        <is>
+          <t>SCA Skog Naturvärdesinventering</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>67082927</v>
+      </c>
+      <c r="B22" t="n">
+        <v>81236</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>1312</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Gammelgransskål</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Pseudographis pinicola</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>(Nyl.) Rehm</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Brännbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>518288.6629372206</v>
+      </c>
+      <c r="R22" t="n">
+        <v>7087459.808235356</v>
+      </c>
+      <c r="S22" t="n">
+        <v>25</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Ström</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>2017-06-27</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>2017-06-27</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT22" t="inlineStr"/>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t>Hugo Ström</t>
+        </is>
+      </c>
+      <c r="AX22" t="inlineStr">
+        <is>
+          <t>Hugo Ström</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr">
+        <is>
+          <t>SCA Skog Naturvärdesinventering</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>67082942</v>
+      </c>
+      <c r="B23" t="n">
+        <v>77506</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Brännbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>518335.1975777112</v>
+      </c>
+      <c r="R23" t="n">
+        <v>7087491.332742036</v>
+      </c>
+      <c r="S23" t="n">
+        <v>25</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Ström</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>2017-06-27</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>2017-06-27</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT23" t="inlineStr"/>
+      <c r="AW23" t="inlineStr">
+        <is>
+          <t>Hugo Ström</t>
+        </is>
+      </c>
+      <c r="AX23" t="inlineStr">
+        <is>
+          <t>Hugo Ström</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr">
+        <is>
+          <t>SCA Skog Naturvärdesinventering</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>67082945</v>
+      </c>
+      <c r="B24" t="n">
+        <v>56411</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>100049</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Brännbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>518335.1975777112</v>
+      </c>
+      <c r="R24" t="n">
+        <v>7087491.332742036</v>
+      </c>
+      <c r="S24" t="n">
+        <v>25</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>Ström</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>2017-06-27</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>2017-06-27</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT24" t="inlineStr"/>
+      <c r="AW24" t="inlineStr">
+        <is>
+          <t>Hugo Ström</t>
+        </is>
+      </c>
+      <c r="AX24" t="inlineStr">
+        <is>
+          <t>Hugo Ström</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr">
+        <is>
+          <t>SCA Skog Naturvärdesinventering</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>67082938</v>
+      </c>
+      <c r="B25" t="n">
+        <v>81236</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>1312</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Gammelgransskål</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Pseudographis pinicola</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>(Nyl.) Rehm</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Brännbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>518471.4961736461</v>
+      </c>
+      <c r="R25" t="n">
+        <v>7087323.544370682</v>
+      </c>
+      <c r="S25" t="n">
+        <v>25</v>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Ström</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>2017-06-27</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>2017-06-27</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT25" t="inlineStr"/>
+      <c r="AW25" t="inlineStr">
+        <is>
+          <t>Hugo Ström</t>
+        </is>
+      </c>
+      <c r="AX25" t="inlineStr">
+        <is>
+          <t>Hugo Ström</t>
+        </is>
+      </c>
+      <c r="AY25" t="inlineStr">
+        <is>
+          <t>SCA Skog Naturvärdesinventering</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>67082911</v>
+      </c>
+      <c r="B26" t="n">
+        <v>78602</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>6463</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Bårdlav</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Nephroma parile</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Brännbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>518204.9283606771</v>
+      </c>
+      <c r="R26" t="n">
+        <v>7087382.728766739</v>
+      </c>
+      <c r="S26" t="n">
+        <v>25</v>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Ström</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>2017-06-27</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>2017-06-27</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT26" t="inlineStr"/>
+      <c r="AW26" t="inlineStr">
+        <is>
+          <t>Hugo Ström</t>
+        </is>
+      </c>
+      <c r="AX26" t="inlineStr">
+        <is>
+          <t>Hugo Ström</t>
+        </is>
+      </c>
+      <c r="AY26" t="inlineStr">
+        <is>
+          <t>SCA Skog Naturvärdesinventering</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>67082910</v>
+      </c>
+      <c r="B27" t="n">
+        <v>78596</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>6462</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Stuplav</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Nephroma bellum</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>(Spreng.) Tuck.</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Brännbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>518204.902758911</v>
+      </c>
+      <c r="R27" t="n">
+        <v>7087387.130467622</v>
+      </c>
+      <c r="S27" t="n">
+        <v>25</v>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>Ström</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>2017-06-27</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>2017-06-27</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT27" t="inlineStr"/>
+      <c r="AW27" t="inlineStr">
+        <is>
+          <t>Hugo Ström</t>
+        </is>
+      </c>
+      <c r="AX27" t="inlineStr">
+        <is>
+          <t>Hugo Ström</t>
+        </is>
+      </c>
+      <c r="AY27" t="inlineStr">
+        <is>
+          <t>SCA Skog Naturvärdesinventering</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>67082907</v>
+      </c>
+      <c r="B28" t="n">
+        <v>78569</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>6458</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Lunglav</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Brännbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>518204.902758911</v>
+      </c>
+      <c r="R28" t="n">
+        <v>7087387.130467622</v>
+      </c>
+      <c r="S28" t="n">
+        <v>25</v>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>Ström</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>2017-06-27</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>2017-06-27</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT28" t="inlineStr"/>
+      <c r="AW28" t="inlineStr">
+        <is>
+          <t>Hugo Ström</t>
+        </is>
+      </c>
+      <c r="AX28" t="inlineStr">
+        <is>
+          <t>Hugo Ström</t>
+        </is>
+      </c>
+      <c r="AY28" t="inlineStr">
+        <is>
+          <t>SCA Skog Naturvärdesinventering</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>67082943</v>
+      </c>
+      <c r="B29" t="n">
+        <v>89410</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Brännbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>518335.1975777112</v>
+      </c>
+      <c r="R29" t="n">
+        <v>7087491.332742036</v>
+      </c>
+      <c r="S29" t="n">
+        <v>25</v>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>Ström</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>2017-06-27</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>2017-06-27</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT29" t="inlineStr"/>
+      <c r="AW29" t="inlineStr">
+        <is>
+          <t>Hugo Ström</t>
+        </is>
+      </c>
+      <c r="AX29" t="inlineStr">
+        <is>
+          <t>Hugo Ström</t>
+        </is>
+      </c>
+      <c r="AY29" t="inlineStr">
+        <is>
+          <t>SCA Skog Naturvärdesinventering</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>67082909</v>
+      </c>
+      <c r="B30" t="n">
+        <v>78570</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>2081</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Skrovellav</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Lobaria scrobiculata</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>(Scop.) DC.</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Brännbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>518203.5344489382</v>
+      </c>
+      <c r="R30" t="n">
+        <v>7087395.045823406</v>
+      </c>
+      <c r="S30" t="n">
+        <v>25</v>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>Ström</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>2017-06-27</t>
+        </is>
+      </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>2017-06-27</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT30" t="inlineStr"/>
+      <c r="AW30" t="inlineStr">
+        <is>
+          <t>Hugo Ström</t>
+        </is>
+      </c>
+      <c r="AX30" t="inlineStr">
+        <is>
+          <t>Hugo Ström</t>
+        </is>
+      </c>
+      <c r="AY30" t="inlineStr">
+        <is>
+          <t>SCA Skog Naturvärdesinventering</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>67082936</v>
+      </c>
+      <c r="B31" t="n">
+        <v>77506</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Brännbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>518443.3372989752</v>
+      </c>
+      <c r="R31" t="n">
+        <v>7087315.014623537</v>
+      </c>
+      <c r="S31" t="n">
+        <v>25</v>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>Ström</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>2017-06-27</t>
+        </is>
+      </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>2017-06-27</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT31" t="inlineStr"/>
+      <c r="AW31" t="inlineStr">
+        <is>
+          <t>Hugo Ström</t>
+        </is>
+      </c>
+      <c r="AX31" t="inlineStr">
+        <is>
+          <t>Hugo Ström</t>
+        </is>
+      </c>
+      <c r="AY31" t="inlineStr">
+        <is>
+          <t>SCA Skog Naturvärdesinventering</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>67082944</v>
+      </c>
+      <c r="B32" t="n">
+        <v>81236</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>1312</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Gammelgransskål</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Pseudographis pinicola</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>(Nyl.) Rehm</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Brännbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>518333.434662688</v>
+      </c>
+      <c r="R32" t="n">
+        <v>7087491.322415015</v>
+      </c>
+      <c r="S32" t="n">
+        <v>25</v>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>Ström</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>2017-06-27</t>
+        </is>
+      </c>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>2017-06-27</t>
+        </is>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT32" t="inlineStr"/>
+      <c r="AW32" t="inlineStr">
+        <is>
+          <t>Hugo Ström</t>
+        </is>
+      </c>
+      <c r="AX32" t="inlineStr">
+        <is>
+          <t>Hugo Ström</t>
+        </is>
+      </c>
+      <c r="AY32" t="inlineStr">
+        <is>
+          <t>SCA Skog Naturvärdesinventering</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>67082908</v>
+      </c>
+      <c r="B33" t="n">
+        <v>77506</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Brännbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>518206.6324470416</v>
+      </c>
+      <c r="R33" t="n">
+        <v>7087392.862924065</v>
+      </c>
+      <c r="S33" t="n">
+        <v>25</v>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>Ström</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>2017-06-27</t>
+        </is>
+      </c>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA33" t="inlineStr">
+        <is>
+          <t>2017-06-27</t>
+        </is>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT33" t="inlineStr"/>
+      <c r="AW33" t="inlineStr">
+        <is>
+          <t>Hugo Ström</t>
+        </is>
+      </c>
+      <c r="AX33" t="inlineStr">
+        <is>
+          <t>Hugo Ström</t>
+        </is>
+      </c>
+      <c r="AY33" t="inlineStr">
+        <is>
+          <t>SCA Skog Naturvärdesinventering</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>67082926</v>
+      </c>
+      <c r="B34" t="n">
+        <v>96354</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>221952</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Spindelblomster</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Neottia cordata</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>(L.) Rich.</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Brännbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>518268.83508197</v>
+      </c>
+      <c r="R34" t="n">
+        <v>7087458.812089412</v>
+      </c>
+      <c r="S34" t="n">
+        <v>25</v>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>Ström</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>2017-06-27</t>
+        </is>
+      </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>2017-06-27</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT34" t="inlineStr"/>
+      <c r="AW34" t="inlineStr">
+        <is>
+          <t>Hugo Ström</t>
+        </is>
+      </c>
+      <c r="AX34" t="inlineStr">
+        <is>
+          <t>Hugo Ström</t>
+        </is>
+      </c>
+      <c r="AY34" t="inlineStr">
+        <is>
+          <t>SCA Skog Naturvärdesinventering</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>67082937</v>
+      </c>
+      <c r="B35" t="n">
+        <v>96354</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>221952</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Spindelblomster</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Neottia cordata</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>(L.) Rich.</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Brännbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>518443.3372989752</v>
+      </c>
+      <c r="R35" t="n">
+        <v>7087315.014623537</v>
+      </c>
+      <c r="S35" t="n">
+        <v>25</v>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>Ström</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>2017-06-27</t>
+        </is>
+      </c>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA35" t="inlineStr">
+        <is>
+          <t>2017-06-27</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT35" t="inlineStr"/>
+      <c r="AW35" t="inlineStr">
+        <is>
+          <t>Hugo Ström</t>
+        </is>
+      </c>
+      <c r="AX35" t="inlineStr">
+        <is>
+          <t>Hugo Ström</t>
+        </is>
+      </c>
+      <c r="AY35" t="inlineStr">
+        <is>
+          <t>SCA Skog Naturvärdesinventering</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>67082946</v>
+      </c>
+      <c r="B36" t="n">
+        <v>56395</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Behöver inte valideras</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Brännbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>518282.1672112891</v>
+      </c>
+      <c r="R36" t="n">
+        <v>7087590.939582426</v>
+      </c>
+      <c r="S36" t="n">
+        <v>25</v>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>Ström</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>2017-06-27</t>
+        </is>
+      </c>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>2017-06-27</t>
+        </is>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT36" t="inlineStr"/>
+      <c r="AW36" t="inlineStr">
+        <is>
+          <t>Hugo Ström</t>
+        </is>
+      </c>
+      <c r="AX36" t="inlineStr">
+        <is>
+          <t>Hugo Ström</t>
+        </is>
+      </c>
+      <c r="AY36" t="inlineStr">
+        <is>
+          <t>SCA Skog Naturvärdesinventering</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>112194178</v>
+      </c>
+      <c r="B37" t="n">
+        <v>86223</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>4412</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Äggvaxskivling</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Hygrophorus karstenii</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Sacc. &amp; Cub.</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>laholmsnäset, Jmt</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>518293.2091892571</v>
+      </c>
+      <c r="R37" t="n">
+        <v>7087436.065283312</v>
+      </c>
+      <c r="S37" t="n">
+        <v>10</v>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>Ström</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA37" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT37" t="inlineStr"/>
+      <c r="AW37" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX37" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>112194204</v>
+      </c>
+      <c r="B38" t="n">
+        <v>78578</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>6458</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Lunglav</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>laholmsnäset, Jmt</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>518350.8837349629</v>
+      </c>
+      <c r="R38" t="n">
+        <v>7087446.967157838</v>
+      </c>
+      <c r="S38" t="n">
+        <v>10</v>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>Ström</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA38" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT38" t="inlineStr"/>
+      <c r="AW38" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX38" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>112194187</v>
+      </c>
+      <c r="B39" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>laholmsnäset, Jmt</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>518286.9970708379</v>
+      </c>
+      <c r="R39" t="n">
+        <v>7087594.048891846</v>
+      </c>
+      <c r="S39" t="n">
+        <v>10</v>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>Ström</t>
+        </is>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA39" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC39" t="inlineStr">
+        <is>
+          <t>ringhack</t>
+        </is>
+      </c>
+      <c r="AD39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT39" t="inlineStr"/>
+      <c r="AW39" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX39" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>112194177</v>
+      </c>
+      <c r="B40" t="n">
+        <v>86223</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>4412</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Äggvaxskivling</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Hygrophorus karstenii</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Sacc. &amp; Cub.</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>laholmsnäset, Jmt</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>518335.0250100362</v>
+      </c>
+      <c r="R40" t="n">
+        <v>7087445.55368663</v>
+      </c>
+      <c r="S40" t="n">
+        <v>10</v>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>Ström</t>
+        </is>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA40" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT40" t="inlineStr"/>
+      <c r="AW40" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX40" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>112194179</v>
+      </c>
+      <c r="B41" t="n">
+        <v>86223</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>4412</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Äggvaxskivling</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Hygrophorus karstenii</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Sacc. &amp; Cub.</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>laholmsnäset, Jmt</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>518214.5248291932</v>
+      </c>
+      <c r="R41" t="n">
+        <v>7087399.951777366</v>
+      </c>
+      <c r="S41" t="n">
+        <v>10</v>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>Ström</t>
+        </is>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA41" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT41" t="inlineStr"/>
+      <c r="AW41" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX41" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>112194175</v>
+      </c>
+      <c r="B42" t="n">
+        <v>86223</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>4412</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Äggvaxskivling</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Hygrophorus karstenii</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Sacc. &amp; Cub.</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>laholmsnäset, Jmt</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>518454.9080369895</v>
+      </c>
+      <c r="R42" t="n">
+        <v>7087370.987120797</v>
+      </c>
+      <c r="S42" t="n">
+        <v>10</v>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>Ström</t>
+        </is>
+      </c>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="Z42" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA42" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT42" t="inlineStr"/>
+      <c r="AW42" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX42" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>112194184</v>
+      </c>
+      <c r="B43" t="n">
+        <v>86223</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>4412</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Äggvaxskivling</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Hygrophorus karstenii</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Sacc. &amp; Cub.</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>laholmsnäset, Jmt</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>518227.7826153407</v>
+      </c>
+      <c r="R43" t="n">
+        <v>7087545.285954683</v>
+      </c>
+      <c r="S43" t="n">
+        <v>10</v>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>Ström</t>
+        </is>
+      </c>
+      <c r="Y43" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="Z43" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA43" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT43" t="inlineStr"/>
+      <c r="AW43" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX43" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>112194194</v>
+      </c>
+      <c r="B44" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>laholmsnäset, Jmt</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>518245.2241503525</v>
+      </c>
+      <c r="R44" t="n">
+        <v>7087577.519284416</v>
+      </c>
+      <c r="S44" t="n">
+        <v>10</v>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>Ström</t>
+        </is>
+      </c>
+      <c r="Y44" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="Z44" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA44" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC44" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
+        </is>
+      </c>
+      <c r="AD44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT44" t="inlineStr"/>
+      <c r="AW44" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX44" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>112194176</v>
+      </c>
+      <c r="B45" t="n">
+        <v>86223</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>4412</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Äggvaxskivling</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Hygrophorus karstenii</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Sacc. &amp; Cub.</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>laholmsnäset, Jmt</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>518410.9991680834</v>
+      </c>
+      <c r="R45" t="n">
+        <v>7087342.556417681</v>
+      </c>
+      <c r="S45" t="n">
+        <v>10</v>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>Ström</t>
+        </is>
+      </c>
+      <c r="Y45" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="Z45" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA45" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT45" t="inlineStr"/>
+      <c r="AW45" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX45" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>112194208</v>
+      </c>
+      <c r="B46" t="n">
+        <v>89423</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>laholmsnäset, Jmt</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>518397.5257104771</v>
+      </c>
+      <c r="R46" t="n">
+        <v>7087385.175459199</v>
+      </c>
+      <c r="S46" t="n">
+        <v>10</v>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>Ström</t>
+        </is>
+      </c>
+      <c r="Y46" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="Z46" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA46" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT46" t="inlineStr"/>
+      <c r="AW46" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX46" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>112194193</v>
+      </c>
+      <c r="B47" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>laholmsnäset, Jmt</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>518252.2884503124</v>
+      </c>
+      <c r="R47" t="n">
+        <v>7087575.35968383</v>
+      </c>
+      <c r="S47" t="n">
+        <v>10</v>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>Ström</t>
+        </is>
+      </c>
+      <c r="Y47" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="Z47" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA47" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC47" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
+        </is>
+      </c>
+      <c r="AD47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT47" t="inlineStr"/>
+      <c r="AW47" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX47" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>112194203</v>
+      </c>
+      <c r="B48" t="n">
+        <v>78578</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>6458</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Lunglav</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>laholmsnäset, Jmt</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>518417.1519740699</v>
+      </c>
+      <c r="R48" t="n">
+        <v>7087420.505509364</v>
+      </c>
+      <c r="S48" t="n">
+        <v>10</v>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>Ström</t>
+        </is>
+      </c>
+      <c r="Y48" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="Z48" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA48" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT48" t="inlineStr"/>
+      <c r="AW48" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX48" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>112194202</v>
+      </c>
+      <c r="B49" t="n">
+        <v>88956</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>5747</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Läderdoftande fingersvamp</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Ramaria safraniolens</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Christian</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>laholmsnäset, Jmt</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>518255.3734686509</v>
+      </c>
+      <c r="R49" t="n">
+        <v>7087575.377676901</v>
+      </c>
+      <c r="S49" t="n">
+        <v>10</v>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>Ström</t>
+        </is>
+      </c>
+      <c r="Y49" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="Z49" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA49" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT49" t="inlineStr"/>
+      <c r="AW49" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX49" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY49" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 54246-2022.xlsx
+++ b/artfynd/A 54246-2022.xlsx
@@ -796,7 +796,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112194188</v>
+        <v>112194190</v>
       </c>
       <c r="B3" t="n">
         <v>56398</v>
@@ -840,10 +840,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>518082.81586301</v>
+        <v>518066</v>
       </c>
       <c r="R3" t="n">
-        <v>7087539.163071194</v>
+        <v>7087556</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -873,24 +873,14 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -917,10 +907,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112194213</v>
+        <v>112194212</v>
       </c>
       <c r="B4" t="n">
-        <v>88033</v>
+        <v>90687</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -929,38 +919,41 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1599</v>
+        <v>5964</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Fjällfotad musseron</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Tricholoma olivaceotinctum</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Mort.Chr. &amp; Heilm.-Claus.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>laholmsnäset, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>518124.7050755081</v>
+        <v>518174</v>
       </c>
       <c r="R4" t="n">
-        <v>7087459.73482959</v>
+        <v>7087423</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -990,19 +983,9 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA4" t="inlineStr">
         <is>
           <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1030,10 +1013,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112194192</v>
+        <v>112194182</v>
       </c>
       <c r="B5" t="n">
-        <v>56398</v>
+        <v>86223</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1046,38 +1029,34 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100109</v>
+        <v>4412</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>laholmsnäset, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>518091.4267611828</v>
+        <v>518134</v>
       </c>
       <c r="R5" t="n">
-        <v>7087574.42568707</v>
+        <v>7087528</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1107,24 +1086,9 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA5" t="inlineStr">
         <is>
           <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1151,10 +1115,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112194182</v>
+        <v>112194192</v>
       </c>
       <c r="B6" t="n">
-        <v>86223</v>
+        <v>56398</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1167,34 +1131,38 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4412</v>
+        <v>100109</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>laholmsnäset, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>518134.0059156906</v>
+        <v>518091</v>
       </c>
       <c r="R6" t="n">
-        <v>7087528.01498606</v>
+        <v>7087574</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1224,19 +1192,14 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA6" t="inlineStr">
         <is>
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1263,10 +1226,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112194189</v>
+        <v>112194210</v>
       </c>
       <c r="B7" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1279,38 +1242,34 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>laholmsnäset, Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>518072.6030094306</v>
+        <v>518178</v>
       </c>
       <c r="R7" t="n">
-        <v>7087552.308946898</v>
+        <v>7087549</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1340,24 +1299,9 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA7" t="inlineStr">
         <is>
           <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1384,10 +1328,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112194180</v>
+        <v>112194201</v>
       </c>
       <c r="B8" t="n">
-        <v>86223</v>
+        <v>88956</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1396,25 +1340,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4412</v>
+        <v>5747</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1424,10 +1368,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>518124.623510486</v>
+        <v>518167</v>
       </c>
       <c r="R8" t="n">
-        <v>7087473.819904541</v>
+        <v>7087545</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1457,27 +1401,18 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA8" t="inlineStr">
         <is>
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD8" t="b">
         <v>0</v>
       </c>
       <c r="AE8" t="b">
         <v>0</v>
       </c>
+      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
@@ -1496,10 +1431,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112194191</v>
+        <v>112194205</v>
       </c>
       <c r="B9" t="n">
-        <v>56398</v>
+        <v>78578</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1512,38 +1447,34 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>laholmsnäset, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>518083.4938550232</v>
+        <v>518193</v>
       </c>
       <c r="R9" t="n">
-        <v>7087574.37984088</v>
+        <v>7087437</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1573,24 +1504,9 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA9" t="inlineStr">
         <is>
           <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1617,10 +1533,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112194211</v>
+        <v>112194189</v>
       </c>
       <c r="B10" t="n">
-        <v>90651</v>
+        <v>56398</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1633,34 +1549,38 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1968</v>
+        <v>100109</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Grantaggsvamp</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Bankera violascens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>laholmsnäset, Jmt</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>518131.7614992051</v>
+        <v>518073</v>
       </c>
       <c r="R10" t="n">
-        <v>7087535.044611246</v>
+        <v>7087552</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1690,19 +1610,14 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA10" t="inlineStr">
         <is>
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1729,10 +1644,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112194183</v>
+        <v>112194211</v>
       </c>
       <c r="B11" t="n">
-        <v>86223</v>
+        <v>90651</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1745,21 +1660,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4412</v>
+        <v>1968</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Grantaggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Bankera violascens</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1769,10 +1684,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>518176.6615178927</v>
+        <v>518132</v>
       </c>
       <c r="R11" t="n">
-        <v>7087544.548479875</v>
+        <v>7087535</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1802,19 +1717,9 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA11" t="inlineStr">
         <is>
           <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1841,10 +1746,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112194212</v>
+        <v>112194183</v>
       </c>
       <c r="B12" t="n">
-        <v>90687</v>
+        <v>86223</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1853,41 +1758,38 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5964</v>
+        <v>4412</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>laholmsnäset, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>518174.2844365868</v>
+        <v>518177</v>
       </c>
       <c r="R12" t="n">
-        <v>7087422.607284184</v>
+        <v>7087545</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1917,28 +1819,17 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA12" t="inlineStr">
         <is>
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD12" t="b">
         <v>0</v>
       </c>
       <c r="AE12" t="b">
         <v>0</v>
       </c>
-      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
@@ -1957,10 +1848,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112194210</v>
+        <v>112194213</v>
       </c>
       <c r="B13" t="n">
-        <v>89423</v>
+        <v>88033</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1969,25 +1860,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5432</v>
+        <v>1599</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Fjällfotad musseron</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Tricholoma olivaceotinctum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>Mort.Chr. &amp; Heilm.-Claus.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1997,10 +1888,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>518177.5148404223</v>
+        <v>518125</v>
       </c>
       <c r="R13" t="n">
-        <v>7087549.395220019</v>
+        <v>7087460</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2030,27 +1921,18 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA13" t="inlineStr">
         <is>
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD13" t="b">
         <v>0</v>
       </c>
       <c r="AE13" t="b">
         <v>0</v>
       </c>
+      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
@@ -2109,10 +1991,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>518126.9826688495</v>
+        <v>518127</v>
       </c>
       <c r="R14" t="n">
-        <v>7087446.982937787</v>
+        <v>7087447</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2142,19 +2024,9 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA14" t="inlineStr">
         <is>
           <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2181,10 +2053,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112194181</v>
+        <v>112194191</v>
       </c>
       <c r="B15" t="n">
-        <v>86223</v>
+        <v>56398</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2197,34 +2069,38 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4412</v>
+        <v>100109</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>laholmsnäset, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>518118.9168419133</v>
+        <v>518083</v>
       </c>
       <c r="R15" t="n">
-        <v>7087545.974299704</v>
+        <v>7087574</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2254,19 +2130,14 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA15" t="inlineStr">
         <is>
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2293,10 +2164,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112194209</v>
+        <v>112194188</v>
       </c>
       <c r="B16" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2309,34 +2180,38 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>laholmsnäset, Jmt</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>518114.4000792159</v>
+        <v>518083</v>
       </c>
       <c r="R16" t="n">
-        <v>7087488.726542877</v>
+        <v>7087539</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2366,19 +2241,14 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA16" t="inlineStr">
         <is>
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2405,10 +2275,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112194205</v>
+        <v>112194180</v>
       </c>
       <c r="B17" t="n">
-        <v>78578</v>
+        <v>86223</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2421,21 +2291,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6458</v>
+        <v>4412</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2445,10 +2315,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>518193.1543143883</v>
+        <v>518125</v>
       </c>
       <c r="R17" t="n">
-        <v>7087436.802628993</v>
+        <v>7087474</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2478,19 +2348,9 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA17" t="inlineStr">
         <is>
           <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2517,10 +2377,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112194190</v>
+        <v>112194181</v>
       </c>
       <c r="B18" t="n">
-        <v>56398</v>
+        <v>86223</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2533,38 +2393,34 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100109</v>
+        <v>4412</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>laholmsnäset, Jmt</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>518066.4100611635</v>
+        <v>518119</v>
       </c>
       <c r="R18" t="n">
-        <v>7087556.234640981</v>
+        <v>7087546</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2594,24 +2450,9 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA18" t="inlineStr">
         <is>
           <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2638,10 +2479,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112194201</v>
+        <v>112194209</v>
       </c>
       <c r="B19" t="n">
-        <v>88956</v>
+        <v>89423</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2650,25 +2491,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5747</v>
+        <v>5432</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2678,10 +2519,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>518166.5198199047</v>
+        <v>518114</v>
       </c>
       <c r="R19" t="n">
-        <v>7087545.369921553</v>
+        <v>7087489</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2711,28 +2552,17 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA19" t="inlineStr">
         <is>
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD19" t="b">
         <v>0</v>
       </c>
       <c r="AE19" t="b">
         <v>0</v>
       </c>
-      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
@@ -4723,10 +4553,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112194178</v>
+        <v>112194194</v>
       </c>
       <c r="B37" t="n">
-        <v>86223</v>
+        <v>56398</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4739,34 +4569,38 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>4412</v>
+        <v>100109</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
           <t>laholmsnäset, Jmt</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>518293.2091892571</v>
+        <v>518245</v>
       </c>
       <c r="R37" t="n">
-        <v>7087436.065283312</v>
+        <v>7087578</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4796,19 +4630,14 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="Z37" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA37" t="inlineStr">
         <is>
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="AB37" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC37" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4835,7 +4664,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112194204</v>
+        <v>112194203</v>
       </c>
       <c r="B38" t="n">
         <v>78578</v>
@@ -4875,10 +4704,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>518350.8837349629</v>
+        <v>518417</v>
       </c>
       <c r="R38" t="n">
-        <v>7087446.967157838</v>
+        <v>7087421</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4908,19 +4737,9 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="Z38" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA38" t="inlineStr">
         <is>
           <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="AB38" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4947,10 +4766,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112194187</v>
+        <v>112194184</v>
       </c>
       <c r="B39" t="n">
-        <v>56398</v>
+        <v>86223</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4963,38 +4782,34 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>100109</v>
+        <v>4412</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
           <t>laholmsnäset, Jmt</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>518286.9970708379</v>
+        <v>518228</v>
       </c>
       <c r="R39" t="n">
-        <v>7087594.048891846</v>
+        <v>7087545</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5024,24 +4839,9 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="Z39" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA39" t="inlineStr">
         <is>
           <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="AB39" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC39" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5068,10 +4868,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>112194177</v>
+        <v>112194187</v>
       </c>
       <c r="B40" t="n">
-        <v>86223</v>
+        <v>56398</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5084,34 +4884,38 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>4412</v>
+        <v>100109</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
           <t>laholmsnäset, Jmt</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>518335.0250100362</v>
+        <v>518287</v>
       </c>
       <c r="R40" t="n">
-        <v>7087445.55368663</v>
+        <v>7087594</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5141,19 +4945,14 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="Z40" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA40" t="inlineStr">
         <is>
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="AB40" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC40" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5180,7 +4979,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>112194179</v>
+        <v>112194178</v>
       </c>
       <c r="B41" t="n">
         <v>86223</v>
@@ -5220,10 +5019,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>518214.5248291932</v>
+        <v>518293</v>
       </c>
       <c r="R41" t="n">
-        <v>7087399.951777366</v>
+        <v>7087436</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5253,19 +5052,9 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="Z41" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA41" t="inlineStr">
         <is>
           <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="AB41" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5292,7 +5081,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>112194175</v>
+        <v>112194177</v>
       </c>
       <c r="B42" t="n">
         <v>86223</v>
@@ -5332,10 +5121,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>518454.9080369895</v>
+        <v>518335</v>
       </c>
       <c r="R42" t="n">
-        <v>7087370.987120797</v>
+        <v>7087446</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5365,19 +5154,9 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="Z42" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA42" t="inlineStr">
         <is>
           <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="AB42" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5404,10 +5183,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>112194184</v>
+        <v>112194204</v>
       </c>
       <c r="B43" t="n">
-        <v>86223</v>
+        <v>78578</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5420,21 +5199,21 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>4412</v>
+        <v>6458</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5444,10 +5223,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>518227.7826153407</v>
+        <v>518351</v>
       </c>
       <c r="R43" t="n">
-        <v>7087545.285954683</v>
+        <v>7087447</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5477,19 +5256,9 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="Z43" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA43" t="inlineStr">
         <is>
           <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="AB43" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5516,10 +5285,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>112194194</v>
+        <v>112194179</v>
       </c>
       <c r="B44" t="n">
-        <v>56398</v>
+        <v>86223</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5532,38 +5301,34 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>100109</v>
+        <v>4412</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
           <t>laholmsnäset, Jmt</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>518245.2241503525</v>
+        <v>518215</v>
       </c>
       <c r="R44" t="n">
-        <v>7087577.519284416</v>
+        <v>7087400</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5593,24 +5358,9 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="Z44" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA44" t="inlineStr">
         <is>
           <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="AB44" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC44" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5677,10 +5427,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>518410.9991680834</v>
+        <v>518411</v>
       </c>
       <c r="R45" t="n">
-        <v>7087342.556417681</v>
+        <v>7087343</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5710,19 +5460,9 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="Z45" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA45" t="inlineStr">
         <is>
           <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="AB45" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5749,10 +5489,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>112194208</v>
+        <v>112194202</v>
       </c>
       <c r="B46" t="n">
-        <v>89423</v>
+        <v>88956</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5761,25 +5501,25 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>5432</v>
+        <v>5747</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5789,10 +5529,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>518397.5257104771</v>
+        <v>518255</v>
       </c>
       <c r="R46" t="n">
-        <v>7087385.175459199</v>
+        <v>7087575</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5822,19 +5562,9 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="Z46" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA46" t="inlineStr">
         <is>
           <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="AB46" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5861,10 +5591,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>112194193</v>
+        <v>112194208</v>
       </c>
       <c r="B47" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5877,38 +5607,34 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
           <t>laholmsnäset, Jmt</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>518252.2884503124</v>
+        <v>518398</v>
       </c>
       <c r="R47" t="n">
-        <v>7087575.35968383</v>
+        <v>7087385</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5938,24 +5664,9 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="Z47" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA47" t="inlineStr">
         <is>
           <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="AB47" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC47" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5982,10 +5693,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>112194203</v>
+        <v>112194175</v>
       </c>
       <c r="B48" t="n">
-        <v>78578</v>
+        <v>86223</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5998,21 +5709,21 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6458</v>
+        <v>4412</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -6022,10 +5733,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>518417.1519740699</v>
+        <v>518455</v>
       </c>
       <c r="R48" t="n">
-        <v>7087420.505509364</v>
+        <v>7087371</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6055,19 +5766,9 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="Z48" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA48" t="inlineStr">
         <is>
           <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="AB48" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -6094,10 +5795,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>112194202</v>
+        <v>112194193</v>
       </c>
       <c r="B49" t="n">
-        <v>88956</v>
+        <v>56398</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6106,38 +5807,42 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>5747</v>
+        <v>100109</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
           <t>laholmsnäset, Jmt</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>518255.3734686509</v>
+        <v>518252</v>
       </c>
       <c r="R49" t="n">
-        <v>7087575.377676901</v>
+        <v>7087575</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6167,19 +5872,14 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="Z49" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA49" t="inlineStr">
         <is>
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="AB49" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC49" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD49" t="b">

--- a/artfynd/A 54246-2022.xlsx
+++ b/artfynd/A 54246-2022.xlsx
@@ -796,10 +796,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112194190</v>
+        <v>112194180</v>
       </c>
       <c r="B3" t="n">
-        <v>56398</v>
+        <v>86357</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -812,38 +812,34 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100109</v>
+        <v>4412</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>laholmsnäset, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>518066</v>
+        <v>518125</v>
       </c>
       <c r="R3" t="n">
-        <v>7087556</v>
+        <v>7087474</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -876,11 +872,6 @@
       <c r="AA3" t="inlineStr">
         <is>
           <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -907,10 +898,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112194212</v>
+        <v>112194188</v>
       </c>
       <c r="B4" t="n">
-        <v>90687</v>
+        <v>56430</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -919,30 +910,31 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5964</v>
+        <v>100109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -950,10 +942,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>518174</v>
+        <v>518083</v>
       </c>
       <c r="R4" t="n">
-        <v>7087423</v>
+        <v>7087539</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -988,13 +980,17 @@
           <t>2023-09-18</t>
         </is>
       </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>ringhack</t>
+        </is>
+      </c>
       <c r="AD4" t="b">
         <v>0</v>
       </c>
       <c r="AE4" t="b">
         <v>0</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
@@ -1013,10 +1009,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112194182</v>
+        <v>112194212</v>
       </c>
       <c r="B5" t="n">
-        <v>86223</v>
+        <v>90821</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1025,38 +1021,41 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4412</v>
+        <v>5964</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>laholmsnäset, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>518134</v>
+        <v>518174</v>
       </c>
       <c r="R5" t="n">
-        <v>7087528</v>
+        <v>7087423</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1097,6 +1096,7 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
@@ -1115,10 +1115,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112194192</v>
+        <v>112194205</v>
       </c>
       <c r="B6" t="n">
-        <v>56398</v>
+        <v>78699</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1131,38 +1131,34 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>laholmsnäset, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>518091</v>
+        <v>518193</v>
       </c>
       <c r="R6" t="n">
-        <v>7087574</v>
+        <v>7087437</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1195,11 +1191,6 @@
       <c r="AA6" t="inlineStr">
         <is>
           <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1226,10 +1217,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112194210</v>
+        <v>112194182</v>
       </c>
       <c r="B7" t="n">
-        <v>89423</v>
+        <v>86357</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1242,21 +1233,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5432</v>
+        <v>4412</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1266,10 +1257,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>518178</v>
+        <v>518134</v>
       </c>
       <c r="R7" t="n">
-        <v>7087549</v>
+        <v>7087528</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1328,10 +1319,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112194201</v>
+        <v>112194209</v>
       </c>
       <c r="B8" t="n">
-        <v>88956</v>
+        <v>89557</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1340,25 +1331,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5747</v>
+        <v>5432</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1368,10 +1359,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>518167</v>
+        <v>518114</v>
       </c>
       <c r="R8" t="n">
-        <v>7087545</v>
+        <v>7087489</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1412,7 +1403,6 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
-      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
@@ -1431,10 +1421,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112194205</v>
+        <v>112194181</v>
       </c>
       <c r="B9" t="n">
-        <v>78578</v>
+        <v>86357</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1447,21 +1437,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6458</v>
+        <v>4412</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1471,10 +1461,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>518193</v>
+        <v>518119</v>
       </c>
       <c r="R9" t="n">
-        <v>7087437</v>
+        <v>7087546</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1533,10 +1523,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112194189</v>
+        <v>112194201</v>
       </c>
       <c r="B10" t="n">
-        <v>56398</v>
+        <v>89090</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1545,42 +1535,38 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100109</v>
+        <v>5747</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>laholmsnäset, Jmt</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>518073</v>
+        <v>518167</v>
       </c>
       <c r="R10" t="n">
-        <v>7087552</v>
+        <v>7087545</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1615,17 +1601,13 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
-        </is>
-      </c>
       <c r="AD10" t="b">
         <v>0</v>
       </c>
       <c r="AE10" t="b">
         <v>0</v>
       </c>
+      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1644,10 +1626,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112194211</v>
+        <v>112194191</v>
       </c>
       <c r="B11" t="n">
-        <v>90651</v>
+        <v>56430</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1660,34 +1642,38 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1968</v>
+        <v>100109</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Grantaggsvamp</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Bankera violascens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>laholmsnäset, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>518132</v>
+        <v>518083</v>
       </c>
       <c r="R11" t="n">
-        <v>7087535</v>
+        <v>7087574</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1720,6 +1706,11 @@
       <c r="AA11" t="inlineStr">
         <is>
           <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1749,7 +1740,7 @@
         <v>112194183</v>
       </c>
       <c r="B12" t="n">
-        <v>86223</v>
+        <v>86357</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1848,10 +1839,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112194213</v>
+        <v>112194192</v>
       </c>
       <c r="B13" t="n">
-        <v>88033</v>
+        <v>56430</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1860,38 +1851,42 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1599</v>
+        <v>100109</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Fjällfotad musseron</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Tricholoma olivaceotinctum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Mort.Chr. &amp; Heilm.-Claus.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>laholmsnäset, Jmt</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>518125</v>
+        <v>518091</v>
       </c>
       <c r="R13" t="n">
-        <v>7087460</v>
+        <v>7087574</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1926,13 +1921,17 @@
           <t>2023-09-18</t>
         </is>
       </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>ringhack färska</t>
+        </is>
+      </c>
       <c r="AD13" t="b">
         <v>0</v>
       </c>
       <c r="AE13" t="b">
         <v>0</v>
       </c>
-      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
@@ -1951,10 +1950,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112194199</v>
+        <v>112194213</v>
       </c>
       <c r="B14" t="n">
-        <v>90332</v>
+        <v>88167</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1963,25 +1962,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4769</v>
+        <v>1599</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Fjällfotad musseron</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Tricholoma olivaceotinctum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Mort.Chr. &amp; Heilm.-Claus.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1991,10 +1990,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>518127</v>
+        <v>518125</v>
       </c>
       <c r="R14" t="n">
-        <v>7087447</v>
+        <v>7087460</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2035,6 +2034,7 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
+      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
@@ -2053,10 +2053,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112194191</v>
+        <v>112194190</v>
       </c>
       <c r="B15" t="n">
-        <v>56398</v>
+        <v>56430</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2097,10 +2097,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>518083</v>
+        <v>518066</v>
       </c>
       <c r="R15" t="n">
-        <v>7087574</v>
+        <v>7087556</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2164,10 +2164,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112194188</v>
+        <v>112194210</v>
       </c>
       <c r="B16" t="n">
-        <v>56398</v>
+        <v>89557</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2180,38 +2180,34 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>laholmsnäset, Jmt</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>518083</v>
+        <v>518178</v>
       </c>
       <c r="R16" t="n">
-        <v>7087539</v>
+        <v>7087549</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2244,11 +2240,6 @@
       <c r="AA16" t="inlineStr">
         <is>
           <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2275,10 +2266,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112194180</v>
+        <v>112194189</v>
       </c>
       <c r="B17" t="n">
-        <v>86223</v>
+        <v>56430</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2291,34 +2282,38 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4412</v>
+        <v>100109</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
           <t>laholmsnäset, Jmt</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>518125</v>
+        <v>518073</v>
       </c>
       <c r="R17" t="n">
-        <v>7087474</v>
+        <v>7087552</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2351,6 +2346,11 @@
       <c r="AA17" t="inlineStr">
         <is>
           <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2377,10 +2377,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112194181</v>
+        <v>112194211</v>
       </c>
       <c r="B18" t="n">
-        <v>86223</v>
+        <v>90785</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2393,21 +2393,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4412</v>
+        <v>1968</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Grantaggsvamp</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Bankera violascens</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2417,10 +2417,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>518119</v>
+        <v>518132</v>
       </c>
       <c r="R18" t="n">
-        <v>7087546</v>
+        <v>7087535</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2479,10 +2479,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112194209</v>
+        <v>112194199</v>
       </c>
       <c r="B19" t="n">
-        <v>89423</v>
+        <v>90466</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2491,25 +2491,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5432</v>
+        <v>4769</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2519,10 +2519,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>518114</v>
+        <v>518127</v>
       </c>
       <c r="R19" t="n">
-        <v>7087489</v>
+        <v>7087447</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -4553,10 +4553,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112194194</v>
+        <v>112194203</v>
       </c>
       <c r="B37" t="n">
-        <v>56398</v>
+        <v>78699</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4569,38 +4569,34 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
           <t>laholmsnäset, Jmt</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>518245</v>
+        <v>518417</v>
       </c>
       <c r="R37" t="n">
-        <v>7087578</v>
+        <v>7087421</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4633,11 +4629,6 @@
       <c r="AA37" t="inlineStr">
         <is>
           <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="AC37" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4664,10 +4655,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112194203</v>
+        <v>112194194</v>
       </c>
       <c r="B38" t="n">
-        <v>78578</v>
+        <v>56430</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4680,34 +4671,38 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
           <t>laholmsnäset, Jmt</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>518417</v>
+        <v>518245</v>
       </c>
       <c r="R38" t="n">
-        <v>7087421</v>
+        <v>7087578</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4740,6 +4735,11 @@
       <c r="AA38" t="inlineStr">
         <is>
           <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="AC38" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4766,10 +4766,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112194184</v>
+        <v>112194178</v>
       </c>
       <c r="B39" t="n">
-        <v>86223</v>
+        <v>86357</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4806,10 +4806,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>518228</v>
+        <v>518293</v>
       </c>
       <c r="R39" t="n">
-        <v>7087545</v>
+        <v>7087436</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4868,10 +4868,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>112194187</v>
+        <v>112194193</v>
       </c>
       <c r="B40" t="n">
-        <v>56398</v>
+        <v>56430</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4912,10 +4912,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>518287</v>
+        <v>518252</v>
       </c>
       <c r="R40" t="n">
-        <v>7087594</v>
+        <v>7087575</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4952,7 +4952,7 @@
       </c>
       <c r="AC40" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -4979,10 +4979,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>112194178</v>
+        <v>112194187</v>
       </c>
       <c r="B41" t="n">
-        <v>86223</v>
+        <v>56430</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -4995,34 +4995,38 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>4412</v>
+        <v>100109</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
           <t>laholmsnäset, Jmt</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>518293</v>
+        <v>518287</v>
       </c>
       <c r="R41" t="n">
-        <v>7087436</v>
+        <v>7087594</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5055,6 +5059,11 @@
       <c r="AA41" t="inlineStr">
         <is>
           <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="AC41" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5084,7 +5093,7 @@
         <v>112194177</v>
       </c>
       <c r="B42" t="n">
-        <v>86223</v>
+        <v>86357</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5183,10 +5192,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>112194204</v>
+        <v>112194184</v>
       </c>
       <c r="B43" t="n">
-        <v>78578</v>
+        <v>86357</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5199,21 +5208,21 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6458</v>
+        <v>4412</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5223,10 +5232,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>518351</v>
+        <v>518228</v>
       </c>
       <c r="R43" t="n">
-        <v>7087447</v>
+        <v>7087545</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5285,10 +5294,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>112194179</v>
+        <v>112194175</v>
       </c>
       <c r="B44" t="n">
-        <v>86223</v>
+        <v>86357</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5325,10 +5334,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>518215</v>
+        <v>518455</v>
       </c>
       <c r="R44" t="n">
-        <v>7087400</v>
+        <v>7087371</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5387,10 +5396,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>112194176</v>
+        <v>112194204</v>
       </c>
       <c r="B45" t="n">
-        <v>86223</v>
+        <v>78699</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5403,21 +5412,21 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>4412</v>
+        <v>6458</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5427,10 +5436,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>518411</v>
+        <v>518351</v>
       </c>
       <c r="R45" t="n">
-        <v>7087343</v>
+        <v>7087447</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5489,10 +5498,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>112194202</v>
+        <v>112194179</v>
       </c>
       <c r="B46" t="n">
-        <v>88956</v>
+        <v>86357</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5501,25 +5510,25 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>5747</v>
+        <v>4412</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5529,10 +5538,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>518255</v>
+        <v>518215</v>
       </c>
       <c r="R46" t="n">
-        <v>7087575</v>
+        <v>7087400</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5591,10 +5600,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>112194208</v>
+        <v>112194176</v>
       </c>
       <c r="B47" t="n">
-        <v>89423</v>
+        <v>86357</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5607,21 +5616,21 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>5432</v>
+        <v>4412</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5631,10 +5640,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>518398</v>
+        <v>518411</v>
       </c>
       <c r="R47" t="n">
-        <v>7087385</v>
+        <v>7087343</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5693,10 +5702,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>112194175</v>
+        <v>112194202</v>
       </c>
       <c r="B48" t="n">
-        <v>86223</v>
+        <v>89090</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5705,25 +5714,25 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>4412</v>
+        <v>5747</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -5733,10 +5742,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>518455</v>
+        <v>518255</v>
       </c>
       <c r="R48" t="n">
-        <v>7087371</v>
+        <v>7087575</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5795,10 +5804,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>112194193</v>
+        <v>112194208</v>
       </c>
       <c r="B49" t="n">
-        <v>56398</v>
+        <v>89557</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -5811,38 +5820,34 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
           <t>laholmsnäset, Jmt</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>518252</v>
+        <v>518398</v>
       </c>
       <c r="R49" t="n">
-        <v>7087575</v>
+        <v>7087385</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -5875,11 +5880,6 @@
       <c r="AA49" t="inlineStr">
         <is>
           <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="AC49" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD49" t="b">

--- a/artfynd/A 54246-2022.xlsx
+++ b/artfynd/A 54246-2022.xlsx
@@ -796,10 +796,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112194180</v>
+        <v>112194190</v>
       </c>
       <c r="B3" t="n">
-        <v>86357</v>
+        <v>56430</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -812,34 +812,38 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4412</v>
+        <v>100109</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>laholmsnäset, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>518125</v>
+        <v>518066</v>
       </c>
       <c r="R3" t="n">
-        <v>7087474</v>
+        <v>7087556</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -872,6 +876,11 @@
       <c r="AA3" t="inlineStr">
         <is>
           <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -898,10 +907,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112194188</v>
+        <v>112194212</v>
       </c>
       <c r="B4" t="n">
-        <v>56430</v>
+        <v>90835</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -910,31 +919,30 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100109</v>
+        <v>5964</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -942,10 +950,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>518083</v>
+        <v>518174</v>
       </c>
       <c r="R4" t="n">
-        <v>7087539</v>
+        <v>7087423</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -980,17 +988,13 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>ringhack</t>
-        </is>
-      </c>
       <c r="AD4" t="b">
         <v>0</v>
       </c>
       <c r="AE4" t="b">
         <v>0</v>
       </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
@@ -1009,10 +1013,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112194212</v>
+        <v>112194199</v>
       </c>
       <c r="B5" t="n">
-        <v>90821</v>
+        <v>90480</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1025,37 +1029,34 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5964</v>
+        <v>4769</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>laholmsnäset, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>518174</v>
+        <v>518127</v>
       </c>
       <c r="R5" t="n">
-        <v>7087423</v>
+        <v>7087447</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1096,7 +1097,6 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
-      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>112194205</v>
       </c>
       <c r="B6" t="n">
-        <v>78699</v>
+        <v>78713</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1217,10 +1217,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112194182</v>
+        <v>112194181</v>
       </c>
       <c r="B7" t="n">
-        <v>86357</v>
+        <v>86371</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1257,10 +1257,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>518134</v>
+        <v>518119</v>
       </c>
       <c r="R7" t="n">
-        <v>7087528</v>
+        <v>7087546</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1319,10 +1319,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112194209</v>
+        <v>112194192</v>
       </c>
       <c r="B8" t="n">
-        <v>89557</v>
+        <v>56430</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1335,34 +1335,38 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>laholmsnäset, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>518114</v>
+        <v>518091</v>
       </c>
       <c r="R8" t="n">
-        <v>7087489</v>
+        <v>7087574</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1395,6 +1399,11 @@
       <c r="AA8" t="inlineStr">
         <is>
           <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1421,10 +1430,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112194181</v>
+        <v>112194210</v>
       </c>
       <c r="B9" t="n">
-        <v>86357</v>
+        <v>89571</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1437,21 +1446,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4412</v>
+        <v>5432</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1461,10 +1470,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>518119</v>
+        <v>518178</v>
       </c>
       <c r="R9" t="n">
-        <v>7087546</v>
+        <v>7087549</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1523,10 +1532,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112194201</v>
+        <v>112194183</v>
       </c>
       <c r="B10" t="n">
-        <v>89090</v>
+        <v>86371</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1535,25 +1544,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5747</v>
+        <v>4412</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1563,7 +1572,7 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>518167</v>
+        <v>518177</v>
       </c>
       <c r="R10" t="n">
         <v>7087545</v>
@@ -1607,7 +1616,6 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
-      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1626,10 +1634,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112194191</v>
+        <v>112194182</v>
       </c>
       <c r="B11" t="n">
-        <v>56430</v>
+        <v>86371</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1642,38 +1650,34 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>4412</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>laholmsnäset, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>518083</v>
+        <v>518134</v>
       </c>
       <c r="R11" t="n">
-        <v>7087574</v>
+        <v>7087528</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1706,11 +1710,6 @@
       <c r="AA11" t="inlineStr">
         <is>
           <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1737,10 +1736,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112194183</v>
+        <v>112194188</v>
       </c>
       <c r="B12" t="n">
-        <v>86357</v>
+        <v>56430</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1753,34 +1752,38 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4412</v>
+        <v>100109</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>laholmsnäset, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>518177</v>
+        <v>518083</v>
       </c>
       <c r="R12" t="n">
-        <v>7087545</v>
+        <v>7087539</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1813,6 +1816,11 @@
       <c r="AA12" t="inlineStr">
         <is>
           <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1839,7 +1847,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112194192</v>
+        <v>112194189</v>
       </c>
       <c r="B13" t="n">
         <v>56430</v>
@@ -1883,10 +1891,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>518091</v>
+        <v>518073</v>
       </c>
       <c r="R13" t="n">
-        <v>7087574</v>
+        <v>7087552</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1923,7 +1931,7 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -1950,10 +1958,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112194213</v>
+        <v>112194211</v>
       </c>
       <c r="B14" t="n">
-        <v>88167</v>
+        <v>90799</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1962,25 +1970,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1599</v>
+        <v>1968</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Fjällfotad musseron</t>
+          <t>Grantaggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Tricholoma olivaceotinctum</t>
+          <t>Bankera violascens</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Mort.Chr. &amp; Heilm.-Claus.</t>
+          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1990,10 +1998,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>518125</v>
+        <v>518132</v>
       </c>
       <c r="R14" t="n">
-        <v>7087460</v>
+        <v>7087535</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2034,7 +2042,6 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
-      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
@@ -2053,7 +2060,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112194190</v>
+        <v>112194191</v>
       </c>
       <c r="B15" t="n">
         <v>56430</v>
@@ -2097,10 +2104,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>518066</v>
+        <v>518083</v>
       </c>
       <c r="R15" t="n">
-        <v>7087556</v>
+        <v>7087574</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2137,7 +2144,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2164,10 +2171,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112194210</v>
+        <v>112194209</v>
       </c>
       <c r="B16" t="n">
-        <v>89557</v>
+        <v>89571</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2204,10 +2211,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>518178</v>
+        <v>518114</v>
       </c>
       <c r="R16" t="n">
-        <v>7087549</v>
+        <v>7087489</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2266,10 +2273,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112194189</v>
+        <v>112194201</v>
       </c>
       <c r="B17" t="n">
-        <v>56430</v>
+        <v>89104</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2278,42 +2285,38 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100109</v>
+        <v>5747</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
           <t>laholmsnäset, Jmt</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>518073</v>
+        <v>518167</v>
       </c>
       <c r="R17" t="n">
-        <v>7087552</v>
+        <v>7087545</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2348,17 +2351,13 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
-        </is>
-      </c>
       <c r="AD17" t="b">
         <v>0</v>
       </c>
       <c r="AE17" t="b">
         <v>0</v>
       </c>
+      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
       </c>
@@ -2377,10 +2376,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112194211</v>
+        <v>112194213</v>
       </c>
       <c r="B18" t="n">
-        <v>90785</v>
+        <v>88181</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2389,25 +2388,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1968</v>
+        <v>1599</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Grantaggsvamp</t>
+          <t>Fjällfotad musseron</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Bankera violascens</t>
+          <t>Tricholoma olivaceotinctum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
+          <t>Mort.Chr. &amp; Heilm.-Claus.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2417,10 +2416,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>518132</v>
+        <v>518125</v>
       </c>
       <c r="R18" t="n">
-        <v>7087535</v>
+        <v>7087460</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2461,6 +2460,7 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
+      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
@@ -2479,10 +2479,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112194199</v>
+        <v>112194180</v>
       </c>
       <c r="B19" t="n">
-        <v>90466</v>
+        <v>86371</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2491,25 +2491,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4769</v>
+        <v>4412</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2519,10 +2519,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>518127</v>
+        <v>518125</v>
       </c>
       <c r="R19" t="n">
-        <v>7087447</v>
+        <v>7087474</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -4553,10 +4553,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112194203</v>
+        <v>112194175</v>
       </c>
       <c r="B37" t="n">
-        <v>78699</v>
+        <v>86371</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4569,21 +4569,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6458</v>
+        <v>4412</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4593,10 +4593,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>518417</v>
+        <v>518455</v>
       </c>
       <c r="R37" t="n">
-        <v>7087421</v>
+        <v>7087371</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4655,7 +4655,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112194194</v>
+        <v>112194187</v>
       </c>
       <c r="B38" t="n">
         <v>56430</v>
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>518245</v>
+        <v>518287</v>
       </c>
       <c r="R38" t="n">
-        <v>7087578</v>
+        <v>7087594</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4739,7 +4739,7 @@
       </c>
       <c r="AC38" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4766,10 +4766,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112194178</v>
+        <v>112194179</v>
       </c>
       <c r="B39" t="n">
-        <v>86357</v>
+        <v>86371</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4806,10 +4806,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>518293</v>
+        <v>518215</v>
       </c>
       <c r="R39" t="n">
-        <v>7087436</v>
+        <v>7087400</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4868,10 +4868,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>112194193</v>
+        <v>112194204</v>
       </c>
       <c r="B40" t="n">
-        <v>56430</v>
+        <v>78713</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4884,38 +4884,34 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
           <t>laholmsnäset, Jmt</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>518252</v>
+        <v>518351</v>
       </c>
       <c r="R40" t="n">
-        <v>7087575</v>
+        <v>7087447</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4948,11 +4944,6 @@
       <c r="AA40" t="inlineStr">
         <is>
           <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="AC40" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -4979,7 +4970,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>112194187</v>
+        <v>112194193</v>
       </c>
       <c r="B41" t="n">
         <v>56430</v>
@@ -5023,10 +5014,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>518287</v>
+        <v>518252</v>
       </c>
       <c r="R41" t="n">
-        <v>7087594</v>
+        <v>7087575</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5063,7 +5054,7 @@
       </c>
       <c r="AC41" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5090,10 +5081,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>112194177</v>
+        <v>112194194</v>
       </c>
       <c r="B42" t="n">
-        <v>86357</v>
+        <v>56430</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5106,34 +5097,38 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>4412</v>
+        <v>100109</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
           <t>laholmsnäset, Jmt</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>518335</v>
+        <v>518245</v>
       </c>
       <c r="R42" t="n">
-        <v>7087446</v>
+        <v>7087578</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5166,6 +5161,11 @@
       <c r="AA42" t="inlineStr">
         <is>
           <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="AC42" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5192,10 +5192,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>112194184</v>
+        <v>112194208</v>
       </c>
       <c r="B43" t="n">
-        <v>86357</v>
+        <v>89571</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5208,21 +5208,21 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>4412</v>
+        <v>5432</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5232,10 +5232,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>518228</v>
+        <v>518398</v>
       </c>
       <c r="R43" t="n">
-        <v>7087545</v>
+        <v>7087385</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5294,10 +5294,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>112194175</v>
+        <v>112194203</v>
       </c>
       <c r="B44" t="n">
-        <v>86357</v>
+        <v>78713</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5310,21 +5310,21 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>4412</v>
+        <v>6458</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5334,10 +5334,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>518455</v>
+        <v>518417</v>
       </c>
       <c r="R44" t="n">
-        <v>7087371</v>
+        <v>7087421</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5396,10 +5396,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>112194204</v>
+        <v>112194178</v>
       </c>
       <c r="B45" t="n">
-        <v>78699</v>
+        <v>86371</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5412,21 +5412,21 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>6458</v>
+        <v>4412</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5436,10 +5436,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>518351</v>
+        <v>518293</v>
       </c>
       <c r="R45" t="n">
-        <v>7087447</v>
+        <v>7087436</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5498,10 +5498,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>112194179</v>
+        <v>112194176</v>
       </c>
       <c r="B46" t="n">
-        <v>86357</v>
+        <v>86371</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5538,10 +5538,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>518215</v>
+        <v>518411</v>
       </c>
       <c r="R46" t="n">
-        <v>7087400</v>
+        <v>7087343</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5600,10 +5600,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>112194176</v>
+        <v>112194184</v>
       </c>
       <c r="B47" t="n">
-        <v>86357</v>
+        <v>86371</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5640,10 +5640,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>518411</v>
+        <v>518228</v>
       </c>
       <c r="R47" t="n">
-        <v>7087343</v>
+        <v>7087545</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5705,7 +5705,7 @@
         <v>112194202</v>
       </c>
       <c r="B48" t="n">
-        <v>89090</v>
+        <v>89104</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5804,10 +5804,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>112194208</v>
+        <v>112194177</v>
       </c>
       <c r="B49" t="n">
-        <v>89557</v>
+        <v>86371</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -5820,21 +5820,21 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>5432</v>
+        <v>4412</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -5844,10 +5844,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>518398</v>
+        <v>518335</v>
       </c>
       <c r="R49" t="n">
-        <v>7087385</v>
+        <v>7087446</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>

--- a/artfynd/A 54246-2022.xlsx
+++ b/artfynd/A 54246-2022.xlsx
@@ -907,10 +907,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112194212</v>
+        <v>112194183</v>
       </c>
       <c r="B4" t="n">
-        <v>90835</v>
+        <v>86371</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -919,41 +919,38 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5964</v>
+        <v>4412</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>laholmsnäset, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>518174</v>
+        <v>518177</v>
       </c>
       <c r="R4" t="n">
-        <v>7087423</v>
+        <v>7087545</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -994,7 +991,6 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
@@ -1013,10 +1009,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112194199</v>
+        <v>112194188</v>
       </c>
       <c r="B5" t="n">
-        <v>90480</v>
+        <v>56430</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1025,38 +1021,42 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4769</v>
+        <v>100109</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>laholmsnäset, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>518127</v>
+        <v>518083</v>
       </c>
       <c r="R5" t="n">
-        <v>7087447</v>
+        <v>7087539</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1089,6 +1089,11 @@
       <c r="AA5" t="inlineStr">
         <is>
           <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1217,10 +1222,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112194181</v>
+        <v>112194210</v>
       </c>
       <c r="B7" t="n">
-        <v>86371</v>
+        <v>89571</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1233,21 +1238,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4412</v>
+        <v>5432</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1257,10 +1262,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>518119</v>
+        <v>518178</v>
       </c>
       <c r="R7" t="n">
-        <v>7087546</v>
+        <v>7087549</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1319,10 +1324,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112194192</v>
+        <v>112194181</v>
       </c>
       <c r="B8" t="n">
-        <v>56430</v>
+        <v>86371</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1335,38 +1340,34 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100109</v>
+        <v>4412</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>laholmsnäset, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>518091</v>
+        <v>518119</v>
       </c>
       <c r="R8" t="n">
-        <v>7087574</v>
+        <v>7087546</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1399,11 +1400,6 @@
       <c r="AA8" t="inlineStr">
         <is>
           <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1430,10 +1426,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112194210</v>
+        <v>112194191</v>
       </c>
       <c r="B9" t="n">
-        <v>89571</v>
+        <v>56430</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1446,34 +1442,38 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>laholmsnäset, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>518178</v>
+        <v>518083</v>
       </c>
       <c r="R9" t="n">
-        <v>7087549</v>
+        <v>7087574</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1506,6 +1506,11 @@
       <c r="AA9" t="inlineStr">
         <is>
           <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1532,7 +1537,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112194183</v>
+        <v>112194182</v>
       </c>
       <c r="B10" t="n">
         <v>86371</v>
@@ -1572,10 +1577,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>518177</v>
+        <v>518134</v>
       </c>
       <c r="R10" t="n">
-        <v>7087545</v>
+        <v>7087528</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1634,10 +1639,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112194182</v>
+        <v>112194199</v>
       </c>
       <c r="B11" t="n">
-        <v>86371</v>
+        <v>90480</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1646,25 +1651,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4412</v>
+        <v>4769</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1674,10 +1679,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>518134</v>
+        <v>518127</v>
       </c>
       <c r="R11" t="n">
-        <v>7087528</v>
+        <v>7087447</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1736,10 +1741,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112194188</v>
+        <v>112194212</v>
       </c>
       <c r="B12" t="n">
-        <v>56430</v>
+        <v>90835</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1748,31 +1753,30 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100109</v>
+        <v>5964</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -1780,10 +1784,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>518083</v>
+        <v>518174</v>
       </c>
       <c r="R12" t="n">
-        <v>7087539</v>
+        <v>7087423</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1818,17 +1822,13 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>ringhack</t>
-        </is>
-      </c>
       <c r="AD12" t="b">
         <v>0</v>
       </c>
       <c r="AE12" t="b">
         <v>0</v>
       </c>
+      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
@@ -1847,10 +1847,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112194189</v>
+        <v>112194180</v>
       </c>
       <c r="B13" t="n">
-        <v>56430</v>
+        <v>86371</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1863,38 +1863,34 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100109</v>
+        <v>4412</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>laholmsnäset, Jmt</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>518073</v>
+        <v>518125</v>
       </c>
       <c r="R13" t="n">
-        <v>7087552</v>
+        <v>7087474</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1927,11 +1923,6 @@
       <c r="AA13" t="inlineStr">
         <is>
           <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2060,7 +2051,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112194191</v>
+        <v>112194192</v>
       </c>
       <c r="B15" t="n">
         <v>56430</v>
@@ -2104,7 +2095,7 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>518083</v>
+        <v>518091</v>
       </c>
       <c r="R15" t="n">
         <v>7087574</v>
@@ -2144,7 +2135,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2171,10 +2162,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112194209</v>
+        <v>112194213</v>
       </c>
       <c r="B16" t="n">
-        <v>89571</v>
+        <v>88181</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2183,25 +2174,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5432</v>
+        <v>1599</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Fjällfotad musseron</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Tricholoma olivaceotinctum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>Mort.Chr. &amp; Heilm.-Claus.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2211,10 +2202,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>518114</v>
+        <v>518125</v>
       </c>
       <c r="R16" t="n">
-        <v>7087489</v>
+        <v>7087460</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2255,6 +2246,7 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
+      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
@@ -2376,10 +2368,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112194213</v>
+        <v>112194209</v>
       </c>
       <c r="B18" t="n">
-        <v>88181</v>
+        <v>89571</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2388,25 +2380,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1599</v>
+        <v>5432</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Fjällfotad musseron</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Tricholoma olivaceotinctum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Mort.Chr. &amp; Heilm.-Claus.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2416,10 +2408,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>518125</v>
+        <v>518114</v>
       </c>
       <c r="R18" t="n">
-        <v>7087460</v>
+        <v>7087489</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2460,7 +2452,6 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
-      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
@@ -2479,10 +2470,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112194180</v>
+        <v>112194189</v>
       </c>
       <c r="B19" t="n">
-        <v>86371</v>
+        <v>56430</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2495,34 +2486,38 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4412</v>
+        <v>100109</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>laholmsnäset, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>518125</v>
+        <v>518073</v>
       </c>
       <c r="R19" t="n">
-        <v>7087474</v>
+        <v>7087552</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2555,6 +2550,11 @@
       <c r="AA19" t="inlineStr">
         <is>
           <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -4553,10 +4553,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112194175</v>
+        <v>112194187</v>
       </c>
       <c r="B37" t="n">
-        <v>86371</v>
+        <v>56430</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4569,34 +4569,38 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>4412</v>
+        <v>100109</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
           <t>laholmsnäset, Jmt</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>518455</v>
+        <v>518287</v>
       </c>
       <c r="R37" t="n">
-        <v>7087371</v>
+        <v>7087594</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4629,6 +4633,11 @@
       <c r="AA37" t="inlineStr">
         <is>
           <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="AC37" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4655,10 +4664,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112194187</v>
+        <v>112194208</v>
       </c>
       <c r="B38" t="n">
-        <v>56430</v>
+        <v>89571</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4671,38 +4680,34 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
           <t>laholmsnäset, Jmt</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>518287</v>
+        <v>518398</v>
       </c>
       <c r="R38" t="n">
-        <v>7087594</v>
+        <v>7087385</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4735,11 +4740,6 @@
       <c r="AA38" t="inlineStr">
         <is>
           <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="AC38" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4766,10 +4766,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112194179</v>
+        <v>112194202</v>
       </c>
       <c r="B39" t="n">
-        <v>86371</v>
+        <v>89104</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4778,25 +4778,25 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>4412</v>
+        <v>5747</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4806,10 +4806,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>518215</v>
+        <v>518255</v>
       </c>
       <c r="R39" t="n">
-        <v>7087400</v>
+        <v>7087575</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4868,10 +4868,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>112194204</v>
+        <v>112194175</v>
       </c>
       <c r="B40" t="n">
-        <v>78713</v>
+        <v>86371</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4884,21 +4884,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6458</v>
+        <v>4412</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -4908,10 +4908,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>518351</v>
+        <v>518455</v>
       </c>
       <c r="R40" t="n">
-        <v>7087447</v>
+        <v>7087371</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4970,10 +4970,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>112194193</v>
+        <v>112194178</v>
       </c>
       <c r="B41" t="n">
-        <v>56430</v>
+        <v>86371</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -4986,38 +4986,34 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>100109</v>
+        <v>4412</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
           <t>laholmsnäset, Jmt</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>518252</v>
+        <v>518293</v>
       </c>
       <c r="R41" t="n">
-        <v>7087575</v>
+        <v>7087436</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5050,11 +5046,6 @@
       <c r="AA41" t="inlineStr">
         <is>
           <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="AC41" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5081,10 +5072,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>112194194</v>
+        <v>112194204</v>
       </c>
       <c r="B42" t="n">
-        <v>56430</v>
+        <v>78713</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5097,38 +5088,34 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
           <t>laholmsnäset, Jmt</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>518245</v>
+        <v>518351</v>
       </c>
       <c r="R42" t="n">
-        <v>7087578</v>
+        <v>7087447</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5161,11 +5148,6 @@
       <c r="AA42" t="inlineStr">
         <is>
           <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="AC42" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5192,10 +5174,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>112194208</v>
+        <v>112194184</v>
       </c>
       <c r="B43" t="n">
-        <v>89571</v>
+        <v>86371</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5208,21 +5190,21 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>5432</v>
+        <v>4412</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5232,10 +5214,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>518398</v>
+        <v>518228</v>
       </c>
       <c r="R43" t="n">
-        <v>7087385</v>
+        <v>7087545</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5294,10 +5276,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>112194203</v>
+        <v>112194194</v>
       </c>
       <c r="B44" t="n">
-        <v>78713</v>
+        <v>56430</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5310,34 +5292,38 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
           <t>laholmsnäset, Jmt</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>518417</v>
+        <v>518245</v>
       </c>
       <c r="R44" t="n">
-        <v>7087421</v>
+        <v>7087578</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5370,6 +5356,11 @@
       <c r="AA44" t="inlineStr">
         <is>
           <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="AC44" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5396,10 +5387,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>112194178</v>
+        <v>112194193</v>
       </c>
       <c r="B45" t="n">
-        <v>86371</v>
+        <v>56430</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5412,34 +5403,38 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>4412</v>
+        <v>100109</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
           <t>laholmsnäset, Jmt</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>518293</v>
+        <v>518252</v>
       </c>
       <c r="R45" t="n">
-        <v>7087436</v>
+        <v>7087575</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5472,6 +5467,11 @@
       <c r="AA45" t="inlineStr">
         <is>
           <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="AC45" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5498,10 +5498,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>112194176</v>
+        <v>112194203</v>
       </c>
       <c r="B46" t="n">
-        <v>86371</v>
+        <v>78713</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5514,21 +5514,21 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>4412</v>
+        <v>6458</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5538,10 +5538,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>518411</v>
+        <v>518417</v>
       </c>
       <c r="R46" t="n">
-        <v>7087343</v>
+        <v>7087421</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5600,7 +5600,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>112194184</v>
+        <v>112194177</v>
       </c>
       <c r="B47" t="n">
         <v>86371</v>
@@ -5640,10 +5640,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>518228</v>
+        <v>518335</v>
       </c>
       <c r="R47" t="n">
-        <v>7087545</v>
+        <v>7087446</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5702,10 +5702,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>112194202</v>
+        <v>112194176</v>
       </c>
       <c r="B48" t="n">
-        <v>89104</v>
+        <v>86371</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5714,25 +5714,25 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>5747</v>
+        <v>4412</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -5742,10 +5742,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>518255</v>
+        <v>518411</v>
       </c>
       <c r="R48" t="n">
-        <v>7087575</v>
+        <v>7087343</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5804,7 +5804,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>112194177</v>
+        <v>112194179</v>
       </c>
       <c r="B49" t="n">
         <v>86371</v>
@@ -5844,10 +5844,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>518335</v>
+        <v>518215</v>
       </c>
       <c r="R49" t="n">
-        <v>7087446</v>
+        <v>7087400</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
